--- a/Test Cases/Negative Test Cases/Shopping Cart Test Suite.xlsx
+++ b/Test Cases/Negative Test Cases/Shopping Cart Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Steps to reproduce :</t>
   </si>
@@ -101,13 +101,16 @@
   </si>
   <si>
     <t>Web page reloads</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +118,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,8 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +463,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,8 +478,11 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,8 +541,11 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,8 +615,11 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,8 +667,11 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,5 +723,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Negative Test Cases/Shopping Cart Test Suite.xlsx
+++ b/Test Cases/Negative Test Cases/Shopping Cart Test Suite.xlsx
@@ -155,7 +155,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -484,6 +484,7 @@
       <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -538,7 +539,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -547,6 +548,7 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -612,7 +614,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -621,6 +623,7 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -664,7 +667,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -673,6 +676,7 @@
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
